--- a/SCBAA/2019/NCR.xlsx
+++ b/SCBAA/2019/NCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F08D5-A94B-44E1-B146-48A0311F7323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9EB1BB-8B12-4FEB-9EC3-3875A936902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="1230" windowWidth="12975" windowHeight="12495" firstSheet="12" activeTab="15" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="10" activeTab="15" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Caloocan" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2239,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AFCEA-6D5B-4F42-BBBE-BAA38BA80E9E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2405,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>6284697762</v>
       </c>
     </row>
@@ -2441,7 +2447,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="52">
-        <f>77439565+5515935</f>
         <v>82955500</v>
       </c>
     </row>
@@ -2453,7 +2458,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>719613497</v>
       </c>
     </row>
@@ -2644,7 +2648,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>7088406809</v>
       </c>
     </row>
@@ -3221,7 +3224,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>8210931747</v>
       </c>
     </row>
@@ -3333,7 +3335,6 @@
         <v>12</v>
       </c>
       <c r="E104" s="52">
-        <f>151464838+18425389</f>
         <v>169890227</v>
       </c>
     </row>
@@ -3397,7 +3398,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>2565775571</v>
       </c>
     </row>
@@ -3409,7 +3409,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>10776707318</v>
       </c>
     </row>
@@ -3431,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BDF850-7C9C-4B33-AA5D-8048B62E4B34}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="E16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3589,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>5096414575.5999994</v>
       </c>
     </row>
@@ -3644,7 +3642,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>522417284.82999998</v>
       </c>
     </row>
@@ -3676,7 +3673,6 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="20">
-        <f>51000000+3479608.48</f>
         <v>54479608.479999997</v>
       </c>
     </row>
@@ -3836,7 +3832,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>6675116206.2199993</v>
       </c>
     </row>
@@ -4413,7 +4408,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>7632557909.9400005</v>
       </c>
     </row>
@@ -4588,7 +4582,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>213360945.37</v>
       </c>
     </row>
@@ -4600,7 +4593,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>7845918855.3100004</v>
       </c>
     </row>
@@ -7002,8 +6994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951E5D2C-DEE1-49F5-BD3C-78D576BCE4FA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F108" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,7 +7153,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1484816891</v>
       </c>
     </row>
@@ -7215,7 +7206,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>228095797</v>
       </c>
     </row>
@@ -7406,7 +7396,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2148764500</v>
       </c>
     </row>
@@ -7952,7 +7941,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="76">
-        <f>2600709+8019445</f>
         <v>10620154</v>
       </c>
     </row>
@@ -7984,7 +7972,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E42:E92)</f>
         <v>1743388527.9000001</v>
       </c>
     </row>
@@ -8151,7 +8138,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="76">
-        <f>62347200+43637830</f>
         <v>105985030</v>
       </c>
     </row>
@@ -8160,7 +8146,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>499538585</v>
       </c>
     </row>
@@ -8172,7 +8157,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2242927112.9000001</v>
       </c>
     </row>
@@ -8194,8 +8178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E538F0-D00D-4D7C-AAFA-45D423DE74A7}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8353,7 +8337,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>8860023961.3099995</v>
       </c>
     </row>
@@ -8396,7 +8379,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="59">
-        <f>742905554.9+461965023.26</f>
         <v>1204870578.1599998</v>
       </c>
     </row>
@@ -8408,7 +8390,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>1404964508.1599998</v>
       </c>
     </row>
@@ -8599,7 +8580,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>12546551099.5</v>
       </c>
     </row>
@@ -9176,7 +9156,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E42:E92)</f>
         <v>8759060634.5200005</v>
       </c>
     </row>
@@ -9343,7 +9322,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="77">
-        <f>386442728+62881751</f>
         <v>449324479</v>
       </c>
     </row>
@@ -9352,7 +9330,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>1438327435.21</v>
       </c>
     </row>
@@ -9364,7 +9341,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>10197388069.73</v>
       </c>
     </row>
@@ -9386,8 +9362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE226B5-A7DF-47CB-9F7B-3F002E9E7650}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9545,7 +9521,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>2620093276.3699999</v>
       </c>
     </row>
@@ -9599,7 +9574,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>613621193.15999997</v>
       </c>
     </row>
@@ -9790,7 +9764,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>4785071219.2099991</v>
       </c>
     </row>
@@ -10212,7 +10185,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="78">
-        <f>14140722.08+126872309.28</f>
         <v>141013031.36000001</v>
       </c>
     </row>
@@ -10348,7 +10320,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="78">
-        <f>1650000+96990000+86668.59</f>
         <v>98726668.590000004</v>
       </c>
     </row>
@@ -10369,7 +10340,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E42:E92)</f>
         <v>4191780339.5100002</v>
       </c>
     </row>
@@ -10555,7 +10525,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>4191780339.5100002</v>
       </c>
     </row>
@@ -10577,8 +10546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF109620-03F6-4487-AE07-B9CB0741C9E8}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10702,7 +10671,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="27">
-        <f>391821434.93+334978922</f>
         <v>726800356.93000007</v>
       </c>
     </row>
@@ -10736,7 +10704,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1790913520.75</v>
       </c>
     </row>
@@ -10779,7 +10746,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="27">
-        <f>11977425.92+495494</f>
         <v>12472919.92</v>
       </c>
     </row>
@@ -10791,7 +10757,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>374305213.09000003</v>
       </c>
     </row>
@@ -10982,7 +10947,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3376278041.1400003</v>
       </c>
     </row>
@@ -11070,7 +11034,6 @@
         <v>10</v>
       </c>
       <c r="E46" s="27">
-        <f>56437553.26+84156846</f>
         <v>140594399.25999999</v>
       </c>
     </row>
@@ -11082,7 +11045,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="27">
-        <f>9068403.76+123402222</f>
         <v>132470625.76000001</v>
       </c>
     </row>
@@ -11094,7 +11056,6 @@
         <v>12</v>
       </c>
       <c r="E48" s="27">
-        <f>6060685+77718423</f>
         <v>83779108</v>
       </c>
     </row>
@@ -11562,7 +11523,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>3077658745.27</v>
       </c>
     </row>
@@ -11737,7 +11697,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="35">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -11749,7 +11708,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>3077658745.27</v>
       </c>
     </row>
@@ -11771,8 +11729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB70DE3E-7D42-424E-9E6C-058559749119}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11918,7 +11876,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="27">
-        <f>246555338+102535178</f>
         <v>349090516</v>
       </c>
     </row>
@@ -11930,7 +11887,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>13485296059</v>
       </c>
     </row>
@@ -11984,7 +11940,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>2844660493</v>
       </c>
     </row>
@@ -12174,7 +12129,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>24146692908</v>
       </c>
     </row>
@@ -12220,7 +12174,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="61">
-        <f>527064385+174753492+805695237</f>
         <v>1507513114</v>
       </c>
     </row>
@@ -12232,7 +12185,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="61">
-        <f>509935377+21061069+1730110945</f>
         <v>2261107391</v>
       </c>
     </row>
@@ -12244,7 +12196,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="61">
-        <f>33997470+25483772</f>
         <v>59481242</v>
       </c>
     </row>
@@ -12528,7 +12479,6 @@
         <v>11</v>
       </c>
       <c r="E71" s="61">
-        <f>575466000+4533313+33000+28650000</f>
         <v>608682313</v>
       </c>
     </row>
@@ -12569,7 +12519,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="61">
-        <f>73200+289610668+87678203</f>
         <v>377362071</v>
       </c>
     </row>
@@ -12756,7 +12705,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>12593711066</v>
       </c>
     </row>
@@ -12931,7 +12879,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="35">
-        <f>SUM(E95:E110)</f>
         <v>2160708879</v>
       </c>
     </row>
@@ -12943,7 +12890,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>14754419945</v>
       </c>
     </row>
@@ -12965,8 +12911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E78DC5-0A13-4BEC-B5E5-A61A49105735}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F107" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13124,7 +13070,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>691175973.29999995</v>
       </c>
     </row>
@@ -13178,7 +13123,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>265332911.96999997</v>
       </c>
     </row>
@@ -13369,7 +13313,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1792062921.8499999</v>
       </c>
     </row>
@@ -13926,7 +13869,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="63">
-        <f>33699000+1050000</f>
         <v>34749000</v>
       </c>
     </row>
@@ -13947,7 +13889,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1722350872.8700018</v>
       </c>
     </row>
@@ -14114,7 +14055,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="63">
-        <f>21574400+6129485.75</f>
         <v>27703885.75</v>
       </c>
     </row>
@@ -14123,7 +14063,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="35">
-        <f>SUM(E95:E110)</f>
         <v>48224116.75</v>
       </c>
     </row>
@@ -14135,7 +14074,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1770574989.6200018</v>
       </c>
     </row>
@@ -14157,8 +14095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3B46A-E9B9-48A2-B2C7-7C8FF621DB3E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F105" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14305,7 +14243,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="64">
-        <f>9838391+30506575</f>
         <v>40344966</v>
       </c>
     </row>
@@ -14317,7 +14254,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>4022815704</v>
       </c>
     </row>
@@ -14371,7 +14307,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>350467852</v>
       </c>
     </row>
@@ -14562,7 +14497,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>5238584768</v>
       </c>
     </row>
@@ -14902,7 +14836,6 @@
         <v>10</v>
       </c>
       <c r="E70" s="64">
-        <f>7137545+50940778+31834875</f>
         <v>89913198</v>
       </c>
     </row>
@@ -14914,7 +14847,6 @@
         <v>11</v>
       </c>
       <c r="E71" s="64">
-        <f>4629127+566403914</f>
         <v>571033041</v>
       </c>
     </row>
@@ -15121,7 +15053,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="64">
-        <f>309750+169951006+85867140</f>
         <v>256127896</v>
       </c>
     </row>
@@ -15142,7 +15073,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>4839456200</v>
       </c>
     </row>
@@ -15309,7 +15239,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="64">
-        <f>50967799+45812760</f>
         <v>96780559</v>
       </c>
     </row>
@@ -15318,7 +15247,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>320946664</v>
       </c>
     </row>
@@ -15330,7 +15258,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>5160402864</v>
       </c>
     </row>
@@ -16542,8 +16469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E7B245-DFF7-4839-8684-9E00A6B2892A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16701,7 +16628,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1293554017</v>
       </c>
     </row>
@@ -16755,7 +16681,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>404588812</v>
       </c>
     </row>
@@ -16946,7 +16871,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2673519018</v>
       </c>
     </row>
@@ -17519,7 +17443,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2769009816</v>
       </c>
     </row>
@@ -17686,7 +17609,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="68">
-        <f>9965100+94528717+4785317</f>
         <v>109279134</v>
       </c>
     </row>
@@ -17695,7 +17617,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>185130828</v>
       </c>
     </row>
@@ -17707,7 +17628,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2954140644</v>
       </c>
     </row>
@@ -17729,8 +17649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0710C7-0CB3-4174-AFAF-7218F9C77C93}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F106" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17888,7 +17808,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>2958117428</v>
       </c>
     </row>
@@ -17931,7 +17850,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="69">
-        <f>85578964+325674092+13055034</f>
         <v>424308090</v>
       </c>
     </row>
@@ -17943,7 +17861,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>943482474</v>
       </c>
     </row>
@@ -18134,7 +18051,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>5700590345.2799997</v>
       </c>
     </row>
@@ -18710,7 +18626,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>4356227183</v>
       </c>
     </row>
@@ -18885,7 +18800,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>362114446</v>
       </c>
     </row>
@@ -18897,7 +18811,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>4718341629</v>
       </c>
     </row>
@@ -18919,8 +18832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD05817E-B73E-4A86-B07A-C9FCA1C0B093}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19078,7 +18991,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>562494647.93000007</v>
       </c>
     </row>
@@ -19132,7 +19044,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>193125072.53</v>
       </c>
     </row>
@@ -19323,7 +19234,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1684479859.1300001</v>
       </c>
     </row>
@@ -19868,7 +19778,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="70">
-        <f>1589130.36+24997768.4</f>
         <v>26586898.759999998</v>
       </c>
     </row>
@@ -19900,7 +19809,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1405255844.96</v>
       </c>
     </row>
@@ -20075,7 +19983,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>543134528.33000004</v>
       </c>
     </row>
@@ -20087,7 +19994,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1948390373.29</v>
       </c>
     </row>
